--- a/biology/Botanique/Ixerbaceae/Ixerbaceae.xlsx
+++ b/biology/Botanique/Ixerbaceae/Ixerbaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Ixerbacées était une petite famille de plantes dicotylédones qui ne comprenait qu'une espèce Ixerba brexioides, un arbre endémique de Nouvelle-Zélande.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Ixerba, anagramme de Brexia (Celastraceae), auquel on pensait le genre lié. Cependant le nom de famille Strasburgeriaceae pourtant plus récent qu'Ixerbaceae a remplacé ce dernier[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Ixerba, anagramme de Brexia (Celastraceae), auquel on pensait le genre lié. Cependant le nom de famille Strasburgeriaceae pourtant plus récent qu'Ixerbaceae a remplacé ce dernier.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Classsification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG II (2003)[2] situe cette famille à la base des Rosidées (Rosids), et l'Angiosperm Phylogeny Website[3] les situe dans l'ordre des Crossosomatales.
-En classification phylogénétique APG III (2009)[4] cette famille est invalide et ses genres sont incorporés dans la famille Strasburgeriaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG II (2003) situe cette famille à la base des Rosidées (Rosids), et l'Angiosperm Phylogeny Website les situe dans l'ordre des Crossosomatales.
+En classification phylogénétique APG III (2009) cette famille est invalide et ses genres sont incorporés dans la famille Strasburgeriaceae.
 </t>
         </is>
       </c>
